--- a/resources/testData/TestData.xlsx
+++ b/resources/testData/TestData.xlsx
@@ -1,45 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F3F54F-6162-4A39-A5E8-DB287C93BA50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{ADCC27F9-70FF-4385-95CD-6602DEDF8265}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9360" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="729" windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Audit" sheetId="2" r:id="rId2"/>
-    <sheet name="Reunion" sheetId="3" r:id="rId3"/>
-    <sheet name="Documentation" sheetId="4" r:id="rId4"/>
-    <sheet name="PNC" sheetId="5" r:id="rId5"/>
-    <sheet name="ActSimpl" sheetId="6" r:id="rId6"/>
-    <sheet name="Action" sheetId="11" r:id="rId7"/>
-    <sheet name="DemandeAction" sheetId="7" r:id="rId8"/>
-    <sheet name="ReclamationClient" sheetId="8" r:id="rId9"/>
-    <sheet name="DemandeFormation" sheetId="9" r:id="rId10"/>
-    <sheet name="Formation" sheetId="10" r:id="rId11"/>
-    <sheet name="Indicateur" sheetId="12" r:id="rId12"/>
-    <sheet name="SuiviIndicateur" sheetId="21" r:id="rId13"/>
-    <sheet name="EvalFRN" sheetId="13" r:id="rId14"/>
-    <sheet name="CritèreTypeProduit" sheetId="14" r:id="rId15"/>
-    <sheet name="Questionnaire" sheetId="15" r:id="rId16"/>
-    <sheet name="Metrologie" sheetId="26" r:id="rId17"/>
-    <sheet name="EnqueteClient" sheetId="16" r:id="rId18"/>
-    <sheet name="EnquetePersonnel" sheetId="17" r:id="rId19"/>
-    <sheet name="IncidentEnv" sheetId="18" r:id="rId20"/>
-    <sheet name="IncidentSec" sheetId="19" r:id="rId21"/>
-    <sheet name="ModuleVendu" sheetId="20" r:id="rId22"/>
-    <sheet name="RisqueOpp" sheetId="23" r:id="rId23"/>
-    <sheet name="JourConge" sheetId="24" r:id="rId24"/>
-    <sheet name="SommeAgenda" sheetId="25" r:id="rId25"/>
+    <sheet name="Input" r:id="rId1" sheetId="1"/>
+    <sheet name="Audit" r:id="rId2" sheetId="2"/>
+    <sheet name="Reunion" r:id="rId3" sheetId="3"/>
+    <sheet name="Documentation" r:id="rId4" sheetId="4"/>
+    <sheet name="PNC" r:id="rId5" sheetId="5"/>
+    <sheet name="ActSimpl" r:id="rId6" sheetId="6"/>
+    <sheet name="Action" r:id="rId7" sheetId="11"/>
+    <sheet name="DemandeAction" r:id="rId8" sheetId="7"/>
+    <sheet name="ReclamationClient" r:id="rId9" sheetId="8"/>
+    <sheet name="DemandeFormation" r:id="rId10" sheetId="9"/>
+    <sheet name="Formation" r:id="rId11" sheetId="10"/>
+    <sheet name="Indicateur" r:id="rId12" sheetId="12"/>
+    <sheet name="SuiviIndicateur" r:id="rId13" sheetId="21"/>
+    <sheet name="EvalFRN" r:id="rId14" sheetId="13"/>
+    <sheet name="CritèreTypeProduit" r:id="rId15" sheetId="14"/>
+    <sheet name="Questionnaire" r:id="rId16" sheetId="15"/>
+    <sheet name="Metrologie" r:id="rId17" sheetId="26"/>
+    <sheet name="EnqueteClient" r:id="rId18" sheetId="16"/>
+    <sheet name="EnquetePersonnel" r:id="rId19" sheetId="17"/>
+    <sheet name="IncidentEnv" r:id="rId20" sheetId="18"/>
+    <sheet name="IncidentSec" r:id="rId21" sheetId="19"/>
+    <sheet name="ModuleVendu" r:id="rId22" sheetId="20"/>
+    <sheet name="RisqueOpp" r:id="rId23" sheetId="23"/>
+    <sheet name="JourConge" r:id="rId24" sheetId="24"/>
+    <sheet name="SommeAgenda" r:id="rId25" sheetId="25"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="505">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1542,11 +1542,54 @@
   <si>
     <t>sana</t>
   </si>
+  <si>
+    <t>Type de thème 2021-06-01T11:39:00.018512100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> formation auto2021-06-01T11:39:14.345584700</t>
+  </si>
+  <si>
+    <t>SOCIETE AUTO2021-06-01T11:39:25.383552700</t>
+  </si>
+  <si>
+    <t>Type de critére2021-06-01T11:39:39.468828300</t>
+  </si>
+  <si>
+    <t>Théme AUTO2021-06-01T11:39:53.533063400</t>
+  </si>
+  <si>
+    <t>ORGANISME AUTO2021-06-01T11:40:06.644488300</t>
+  </si>
+  <si>
+    <t>Type de thème 2021-06-01T11:52:43.031927700</t>
+  </si>
+  <si>
+    <t>Type de thème 2021-06-01T14:15:19.935951900</t>
+  </si>
+  <si>
+    <t>2021-06-02T10:13:56.685749800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> formation auto2021-06-02T10:14:10.911005300</t>
+  </si>
+  <si>
+    <t>SOCIETE AUTO2021-06-02T10:14:21.970426</t>
+  </si>
+  <si>
+    <t>Type de critére2021-06-02T10:14:35.858944900</t>
+  </si>
+  <si>
+    <t>Théme AUTO2021-06-02T10:14:49.898460200</t>
+  </si>
+  <si>
+    <t>ORGANISME AUTO2021-06-02T10:15:02.973214</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1790,126 +1833,126 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="69">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="9" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Lien hypertexte" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1926,10 +1969,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1964,7 +2007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2016,7 +2059,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2121,7 +2164,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2130,13 +2173,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2146,7 +2189,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2155,7 +2198,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2164,7 +2207,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2174,12 +2217,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2210,7 +2253,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2229,7 +2272,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2241,30 +2284,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="29" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="29" width="45.42578125" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="30" r="1" s="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2286,10 +2329,10 @@
         <v>309</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>322</v>
+        <v>490</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>322</v>
+        <v>490</v>
       </c>
       <c r="S2" t="s">
         <v>354</v>
@@ -2298,7 +2341,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" s="35" t="s">
         <v>21</v>
@@ -2310,7 +2353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="35" t="s">
         <v>24</v>
@@ -2506,33 +2549,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="115">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="36.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="18" r="1" s="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -2561,7 +2604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="2" s="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>17</v>
       </c>
@@ -2590,7 +2633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="3" s="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="56"/>
       <c r="B3" s="56"/>
       <c r="C3" s="56" t="s">
@@ -2613,7 +2656,7 @@
       </c>
       <c r="I3" s="56"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="4" s="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="56"/>
       <c r="B4" s="56" t="s">
         <v>18</v>
@@ -2638,7 +2681,7 @@
       </c>
       <c r="I4" s="56"/>
     </row>
-    <row r="5" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="5" s="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>17</v>
       </c>
@@ -2663,7 +2706,7 @@
       </c>
       <c r="I5" s="56"/>
     </row>
-    <row r="6" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>308</v>
       </c>
@@ -2690,60 +2733,60 @@
       </c>
       <c r="I6" s="56"/>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="9" s="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="11" s="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="12" s="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="13" s="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="14" s="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="15" s="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="16" s="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="17" s="4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="18" s="4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="19" s="4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="20" s="4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="21" s="4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="22" s="4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="23" s="4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="24" s="4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="25" s="4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="26" s="4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="27" s="4" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0" zoomScale="115">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="30" collapsed="1"/>
-    <col min="2" max="2" width="23.28515625" style="30" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" style="30" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" style="30" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" style="30" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17" style="30" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" style="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.28515625" style="30" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.7109375" style="30" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19" style="30" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" style="30" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.42578125" style="30" collapsed="1"/>
-    <col min="13" max="13" width="35.7109375" style="30" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="27.140625" style="30" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" style="30" width="11.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="30" width="23.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="30" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="30" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="30" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="30" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="30" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="30" width="23.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="30" width="30.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="30" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="30" width="23.0" collapsed="true"/>
+    <col min="12" max="12" style="30" width="11.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="30" width="35.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="30" width="27.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="38.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.75" r="1" s="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>15</v>
       </c>
@@ -2790,18 +2833,18 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="29" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="2" s="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>34</v>
+      <c r="C2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
+        <v>500</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>40</v>
@@ -2809,11 +2852,11 @@
       <c r="F2" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>45</v>
+      <c r="G2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H2" t="s">
+        <v>504</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>47</v>
@@ -2837,8 +2880,14 @@
       <c r="P2" s="55" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>499</v>
+      </c>
+      <c r="R2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row ht="14.45" r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>196</v>
       </c>
@@ -2882,7 +2931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2923,7 +2972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
@@ -3127,36 +3176,36 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E9" type="list" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Formateur interne,Formateur externe,Internal Trainer,External Trainer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I2:I9" type="list" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"OUI,NON,NO,YES"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K9" xr:uid="{00000000-0002-0000-0A00-000002000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="K2:K9" type="list" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>"MONO,MULTI"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="115">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="29.85546875" style="30" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15" style="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="10" customWidth="true" style="30" width="29.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="25" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="41" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row customFormat="1" ht="19.5" r="1" s="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="40" t="s">
         <v>227</v>
       </c>
@@ -3191,7 +3240,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>119</v>
       </c>
@@ -3217,7 +3266,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>119</v>
       </c>
@@ -3281,7 +3330,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="5" s="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>194</v>
       </c>
@@ -3310,40 +3359,40 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" s="39"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D5" type="list" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Suivi manuel, Formule de Calcul,Données de Qualipro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G5" type="list" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>"OUI,NON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F5" type="list" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>"OUI/NON,DERNIERE VALEUR,MOYENNE PONDEREE,Moyenne simple,VALEUR CUMULEE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{00000000-0002-0000-0B00-000003000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I3" type="list" xr:uid="{00000000-0002-0000-0B00-000003000000}">
       <formula1>"Mois,TRIMESTRE,SEMESTRE,Année"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3366,7 +3415,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>278</v>
       </c>
@@ -3382,7 +3431,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="3" s="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>281</v>
       </c>
@@ -3397,7 +3446,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>278</v>
       </c>
@@ -3413,7 +3462,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>287</v>
       </c>
@@ -3433,29 +3482,29 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F5">
     <sortCondition ref="B1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.28515625" style="25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="26.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="25" width="20.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="28.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="42" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row customFormat="1" ht="19.5" r="1" s="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>129</v>
       </c>
@@ -3472,7 +3521,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>131</v>
       </c>
@@ -3498,7 +3547,7 @@
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="4" s="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>131</v>
       </c>
@@ -3513,7 +3562,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="D5" s="35"/>
@@ -4112,30 +4161,30 @@
       <c r="B125" s="35"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" style="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" style="35" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" style="35" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" style="35" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" style="35" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="35" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="35" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="35" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="35" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="35" width="17.7109375" collapsed="true"/>
+    <col min="6" max="6" style="35" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="41" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row customFormat="1" ht="19.5" r="1" s="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="40" t="s">
         <v>134</v>
       </c>
@@ -4155,7 +4204,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>137</v>
       </c>
@@ -4196,33 +4245,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115">
       <selection activeCell="E14" sqref="E14:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22" style="6" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="25.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="29.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="34.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="32.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="6" width="22.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="32.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="6" width="22.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="18" r="1" s="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>144</v>
       </c>
@@ -4254,7 +4303,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>450</v>
       </c>
@@ -4278,7 +4327,7 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>378</v>
       </c>
@@ -4298,7 +4347,7 @@
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="24"/>
@@ -4322,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="5" s="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="24"/>
@@ -4346,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="24"/>
@@ -4368,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="24"/>
@@ -4384,7 +4433,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="24"/>
@@ -4398,7 +4447,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="24"/>
@@ -4410,7 +4459,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
@@ -4422,7 +4471,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -4434,7 +4483,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -4446,7 +4495,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -4458,7 +4507,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -4470,7 +4519,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -4482,7 +4531,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
@@ -4494,7 +4543,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
@@ -4506,7 +4555,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
@@ -4518,7 +4567,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
@@ -4530,7 +4579,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
@@ -4542,7 +4591,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
@@ -4554,7 +4603,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
@@ -4566,7 +4615,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
@@ -4578,7 +4627,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
@@ -4590,7 +4639,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
@@ -4602,7 +4651,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
@@ -4614,7 +4663,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
@@ -4628,18 +4677,18 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5 G4:G6 I4:I6" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="H4:H5 G4:G6 I4:I6" type="list" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"VRAI,FAUX"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:AT4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
@@ -4647,54 +4696,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="37.85546875" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="42.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="22" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="51.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="31" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="31.5703125" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="46.7109375" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="55.140625" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="51.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="46.7109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="55.140625" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="35.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.75" r="1" s="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
         <v>381</v>
       </c>
@@ -4834,7 +4883,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="12" r="2" s="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>459</v>
       </c>
@@ -4932,12 +4981,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="61" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="3" s="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="Y3" s="61">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="61" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="4" s="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="U4" s="61">
         <v>20</v>
       </c>
@@ -4952,29 +5001,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:E45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="15" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" style="1" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="37.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="39.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="28.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18.75" r="1" s="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>154</v>
       </c>
@@ -4991,7 +5040,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="2" s="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>440</v>
       </c>
@@ -5008,7 +5057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
@@ -5019,7 +5068,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -5030,7 +5079,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="5" s="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5039,280 +5088,280 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -5321,33 +5370,33 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2" type="list" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"ANONYME,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="11.42578125" style="1" collapsed="1"/>
-    <col min="4" max="4" width="21.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="21.42578125" collapsed="true"/>
+    <col min="2" max="3" style="1" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="21.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="22.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18.75" r="1" s="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>154</v>
       </c>
@@ -5367,7 +5416,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="2" s="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>380</v>
       </c>
@@ -5387,7 +5436,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
@@ -5399,7 +5448,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -5411,7 +5460,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="5" s="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5421,7 +5470,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5431,7 +5480,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5439,7 +5488,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5447,7 +5496,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5455,7 +5504,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5463,7 +5512,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5471,7 +5520,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5479,7 +5528,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5487,7 +5536,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5495,7 +5544,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5503,7 +5552,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5511,7 +5560,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5519,7 +5568,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5527,7 +5576,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -5535,7 +5584,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -5543,7 +5592,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -5551,7 +5600,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -5559,7 +5608,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5567,7 +5616,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5575,7 +5624,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5583,7 +5632,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5591,7 +5640,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -5601,47 +5650,47 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-1200-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2" type="list" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>"ANONYME,NON CONFIDENTIELLE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="43" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="34.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.42578125" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="2" width="34.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="2" width="18.85546875" collapsed="true"/>
+    <col min="20" max="20" style="2" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="30" r="1" s="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
@@ -5701,7 +5750,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
@@ -5773,7 +5822,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>17</v>
       </c>
@@ -6051,45 +6100,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" priority="1">
+    <cfRule priority="1" type="expression">
       <formula>"$D2 = ""OUI"""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 H2:H5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D5 H2:H5" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"OUI,NON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G5" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"UN,PLUSIEURS"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="115">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="43" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30" style="43" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.42578125" style="43" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.5703125" style="43" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="44" style="43" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37.140625" style="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38" style="43" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.28515625" style="43" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.140625" style="43" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="43" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="43" width="30.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="43" width="33.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="43" width="29.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="43" width="44.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="43" width="37.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="43" width="38.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="43" width="23.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="43" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18.75" r="1" s="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>61</v>
       </c>
@@ -6118,7 +6167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="2" s="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>176</v>
       </c>
@@ -6147,7 +6196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18.75" r="3" s="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>203</v>
       </c>
@@ -6176,7 +6225,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -6187,7 +6236,7 @@
       <c r="H4" s="25"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -6198,7 +6247,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -6209,7 +6258,7 @@
       <c r="H6" s="25"/>
       <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -6220,7 +6269,7 @@
       <c r="H7" s="25"/>
       <c r="I7" s="35"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -6231,7 +6280,7 @@
       <c r="H8" s="25"/>
       <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -6242,7 +6291,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="35"/>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -6253,7 +6302,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="35"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -6264,7 +6313,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -6275,7 +6324,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -6286,7 +6335,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -6297,7 +6346,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -6308,7 +6357,7 @@
       <c r="H15" s="25"/>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -6319,7 +6368,7 @@
       <c r="H16" s="25"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -6330,7 +6379,7 @@
       <c r="H17" s="25"/>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -6341,7 +6390,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -6352,7 +6401,7 @@
       <c r="H19" s="25"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -6363,7 +6412,7 @@
       <c r="H20" s="25"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -6374,7 +6423,7 @@
       <c r="H21" s="25"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -6385,7 +6434,7 @@
       <c r="H22" s="25"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -6396,7 +6445,7 @@
       <c r="H23" s="25"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -6407,7 +6456,7 @@
       <c r="H24" s="25"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -6418,7 +6467,7 @@
       <c r="H25" s="25"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -6429,7 +6478,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -6441,31 +6490,31 @@
       <c r="I27" s="35"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" style="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" style="35" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34" style="35" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="41.7109375" style="35" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.5703125" style="35" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.28515625" style="25" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34" style="35" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="35" width="30.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="35" width="13.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="35" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="35" width="34.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="35" width="41.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="35" width="35.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="25" width="21.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="35" width="34.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="41" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row customFormat="1" ht="19.5" r="1" s="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="40" t="s">
         <v>61</v>
       </c>
@@ -6491,7 +6540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>176</v>
       </c>
@@ -6518,24 +6567,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="24.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.6" r="1" s="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
         <v>259</v>
       </c>
@@ -6546,7 +6595,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
@@ -6557,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
@@ -6568,7 +6617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>262</v>
       </c>
@@ -6579,7 +6628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>263</v>
       </c>
@@ -6735,41 +6784,41 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17" xr:uid="{00000000-0002-0000-1500-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B17" type="list" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>"OUI,NON"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AG5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0" zoomScale="115">
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="32" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="15" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
@@ -6844,7 +6893,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row r="2" spans="1:33" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>18</v>
       </c>
@@ -6919,20 +6968,20 @@
       <c r="AF2" s="29"/>
       <c r="AG2" s="29"/>
     </row>
-    <row r="4" spans="1:33" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="18" r="4" s="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="5" s="29" spans="1:33" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:DY2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:DZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6940,11 +6989,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="58" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>356</v>
       </c>
@@ -7088,14 +7137,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
@@ -7103,12 +7152,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="18" r="1" s="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
         <v>369</v>
       </c>
@@ -7119,7 +7168,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -7127,7 +7176,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>258</v>
       </c>
@@ -7135,7 +7184,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -7143,7 +7192,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>371</v>
       </c>
@@ -7151,7 +7200,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>264</v>
       </c>
@@ -7251,32 +7300,32 @@
       <c r="A18" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>61</v>
       </c>
@@ -7305,7 +7354,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>306</v>
       </c>
@@ -7334,7 +7383,7 @@
         <v>24022</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -7345,7 +7394,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -7356,7 +7405,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="5" s="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -7367,7 +7416,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -7378,7 +7427,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -7389,7 +7438,7 @@
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -7400,7 +7449,7 @@
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -7412,30 +7461,30 @@
       <c r="I9" s="30"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0" zoomScale="115">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="44.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="26.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -7530,48 +7579,48 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0" zoomScale="115">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" collapsed="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" collapsed="1"/>
-    <col min="15" max="15" width="5.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="31.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.42578125" style="1" collapsed="1"/>
-    <col min="20" max="20" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="11.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="25.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="30.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="36.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="50.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="14" max="14" style="1" width="11.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="5.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="31.28515625" collapsed="true"/>
+    <col min="19" max="19" style="1" width="11.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18.75" r="1" s="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -7648,7 +7697,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="2" s="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -7725,7 +7774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -7780,7 +7829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18.75" r="4" s="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>204</v>
       </c>
@@ -7839,7 +7888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
@@ -7899,7 +7948,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>17</v>
       </c>
@@ -7961,7 +8010,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -7983,7 +8032,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -8005,7 +8054,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -8027,7 +8076,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -8049,7 +8098,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -8071,7 +8120,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -8093,7 +8142,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -8115,7 +8164,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -8137,7 +8186,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -8159,7 +8208,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -8181,7 +8230,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -8203,7 +8252,7 @@
       <c r="S17" s="4"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -8225,7 +8274,7 @@
       <c r="S18" s="4"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -8248,33 +8297,33 @@
       <c r="T19" s="30"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="1" disablePrompts="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="R2:R6" type="list" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"OUI,NON"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="33.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="18" r="1" s="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -8285,7 +8334,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="2" s="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -8296,168 +8345,168 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="3" s="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="4" s="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="5" s="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:X29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="115">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" style="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.42578125" style="15" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="15" collapsed="1"/>
-    <col min="12" max="12" width="23.28515625" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.42578125" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.28515625" style="15" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.42578125" style="15" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="21.42578125" style="15" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="30.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.28515625" style="15" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" style="15" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18" style="15" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20" style="15" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="25" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="15" width="18.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="15" width="21.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="15" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="15" width="22.42578125" collapsed="true"/>
+    <col min="11" max="11" style="15" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="23.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="15" width="23.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="22.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="15" width="21.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="15" width="19.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="15" width="21.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="15" width="30.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="15" width="19.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="15" width="16.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="15" width="18.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="15" width="20.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18.75" r="1" s="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>60</v>
       </c>
@@ -8531,7 +8580,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18.75" r="2" s="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>482</v>
       </c>
@@ -8605,7 +8654,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18.75" r="3" s="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>254</v>
       </c>
@@ -8679,7 +8728,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="4" s="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
@@ -8698,7 +8747,7 @@
       <c r="V4" s="31"/>
       <c r="W4" s="31"/>
     </row>
-    <row r="5" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
@@ -8717,7 +8766,7 @@
       <c r="V5" s="31"/>
       <c r="W5" s="31"/>
     </row>
-    <row r="6" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -8736,7 +8785,7 @@
       <c r="V6" s="31"/>
       <c r="W6" s="31"/>
     </row>
-    <row r="7" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D7" s="31"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
@@ -8755,7 +8804,7 @@
       <c r="V7" s="31"/>
       <c r="W7" s="31"/>
     </row>
-    <row r="8" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D8" s="31"/>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -8774,7 +8823,7 @@
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
     </row>
-    <row r="9" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -8793,7 +8842,7 @@
       <c r="V9" s="31"/>
       <c r="W9" s="31"/>
     </row>
-    <row r="10" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
@@ -8812,7 +8861,7 @@
       <c r="V10" s="31"/>
       <c r="W10" s="31"/>
     </row>
-    <row r="11" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
@@ -8831,7 +8880,7 @@
       <c r="V11" s="31"/>
       <c r="W11" s="31"/>
     </row>
-    <row r="12" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
@@ -8850,7 +8899,7 @@
       <c r="V12" s="31"/>
       <c r="W12" s="31"/>
     </row>
-    <row r="13" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
@@ -8869,7 +8918,7 @@
       <c r="V13" s="31"/>
       <c r="W13" s="31"/>
     </row>
-    <row r="14" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
@@ -8888,7 +8937,7 @@
       <c r="V14" s="31"/>
       <c r="W14" s="31"/>
     </row>
-    <row r="15" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
@@ -8907,7 +8956,7 @@
       <c r="V15" s="31"/>
       <c r="W15" s="31"/>
     </row>
-    <row r="16" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
@@ -8926,7 +8975,7 @@
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
     </row>
-    <row r="17" spans="4:23" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="30" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -8945,7 +8994,7 @@
       <c r="V17" s="31"/>
       <c r="W17" s="31"/>
     </row>
-    <row r="18" spans="4:23" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="30" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
@@ -8964,7 +9013,7 @@
       <c r="V18" s="31"/>
       <c r="W18" s="31"/>
     </row>
-    <row r="19" spans="4:23" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="30" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
@@ -8983,7 +9032,7 @@
       <c r="V19" s="31"/>
       <c r="W19" s="31"/>
     </row>
-    <row r="20" spans="4:23" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="30" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -9002,7 +9051,7 @@
       <c r="V20" s="31"/>
       <c r="W20" s="31"/>
     </row>
-    <row r="21" spans="4:23" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="30" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
@@ -9021,7 +9070,7 @@
       <c r="V21" s="31"/>
       <c r="W21" s="31"/>
     </row>
-    <row r="22" spans="4:23" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="30" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
@@ -9040,7 +9089,7 @@
       <c r="V22" s="31"/>
       <c r="W22" s="31"/>
     </row>
-    <row r="23" spans="4:23" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="30" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
@@ -9059,7 +9108,7 @@
       <c r="V23" s="31"/>
       <c r="W23" s="31"/>
     </row>
-    <row r="24" spans="4:23" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="30" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
@@ -9078,7 +9127,7 @@
       <c r="V24" s="31"/>
       <c r="W24" s="31"/>
     </row>
-    <row r="25" spans="4:23" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="30" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
@@ -9097,7 +9146,7 @@
       <c r="V25" s="31"/>
       <c r="W25" s="31"/>
     </row>
-    <row r="26" spans="4:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="4" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -9115,7 +9164,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="4:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="4" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -9133,7 +9182,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="4:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="4" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -9151,7 +9200,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="4:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="2" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -9170,35 +9219,35 @@
       <c r="V29" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0" zoomScale="115">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="37" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="50.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="2" width="37.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="50.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="34.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18.75" r="1" s="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>236</v>
       </c>
@@ -9242,7 +9291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="2" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>257</v>
       </c>
@@ -9284,7 +9333,7 @@
       </c>
       <c r="N2" s="30"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="3" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>257</v>
       </c>
@@ -9316,7 +9365,7 @@
       </c>
       <c r="N3" s="30"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="4" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>257</v>
       </c>
@@ -9352,7 +9401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="5" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>257</v>
       </c>
@@ -9386,7 +9435,7 @@
       </c>
       <c r="N5" s="30"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>257</v>
       </c>
@@ -9424,7 +9473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>257</v>
       </c>
@@ -9458,7 +9507,7 @@
       </c>
       <c r="N7" s="30"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>321</v>
       </c>
@@ -9489,7 +9538,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>321</v>
       </c>
@@ -9521,7 +9570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>321</v>
       </c>
@@ -9555,7 +9604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>321</v>
       </c>
@@ -9590,112 +9639,112 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:U30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" style="13" collapsed="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="43.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="10" max="10" style="13" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="43.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18.75" r="1" s="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -9760,7 +9809,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="2" s="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
@@ -9820,7 +9869,7 @@
       </c>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18.75" r="3" s="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>200</v>
       </c>
@@ -9862,7 +9911,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="14.45" r="4" s="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -9903,7 +9952,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -9947,7 +9996,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>17</v>
       </c>
@@ -9997,80 +10046,80 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="10:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="4" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="10:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="4" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="10:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="4" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="10:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="4" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="10:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="4" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="10:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="4" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="10:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="4" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="10:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="4" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="10:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="4" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="10:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="4" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="10:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="4" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="10:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="4" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="10:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="2" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="10:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="2" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/testData/TestData.xlsx
+++ b/resources/testData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{ADCC27F9-70FF-4385-95CD-6602DEDF8265}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{330F5E6A-BDBB-4409-BF09-F10F1F0D34EE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView tabRatio="729" windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="20" firstSheet="15" tabRatio="729" windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Input" r:id="rId1" sheetId="1"/>
@@ -28,18 +28,19 @@
     <sheet name="EnqueteClient" r:id="rId18" sheetId="16"/>
     <sheet name="EnquetePersonnel" r:id="rId19" sheetId="17"/>
     <sheet name="IncidentEnv" r:id="rId20" sheetId="18"/>
-    <sheet name="IncidentSec" r:id="rId21" sheetId="19"/>
-    <sheet name="ModuleVendu" r:id="rId22" sheetId="20"/>
-    <sheet name="RisqueOpp" r:id="rId23" sheetId="23"/>
-    <sheet name="JourConge" r:id="rId24" sheetId="24"/>
-    <sheet name="SommeAgenda" r:id="rId25" sheetId="25"/>
+    <sheet name="EvaluationAspect" r:id="rId21" sheetId="28"/>
+    <sheet name="IncidentSec" r:id="rId22" sheetId="19"/>
+    <sheet name="ModuleVendu" r:id="rId23" sheetId="20"/>
+    <sheet name="RisqueOpp" r:id="rId24" sheetId="23"/>
+    <sheet name="JourConge" r:id="rId25" sheetId="24"/>
+    <sheet name="SommeAgenda" r:id="rId26" sheetId="25"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="507">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1036,9 +1037,6 @@
     <t>AUDIT</t>
   </si>
   <si>
-    <t>AUTO</t>
-  </si>
-  <si>
     <t>09/17/2020</t>
   </si>
   <si>
@@ -1543,30 +1541,6 @@
     <t>sana</t>
   </si>
   <si>
-    <t>Type de thème 2021-06-01T11:39:00.018512100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> formation auto2021-06-01T11:39:14.345584700</t>
-  </si>
-  <si>
-    <t>SOCIETE AUTO2021-06-01T11:39:25.383552700</t>
-  </si>
-  <si>
-    <t>Type de critére2021-06-01T11:39:39.468828300</t>
-  </si>
-  <si>
-    <t>Théme AUTO2021-06-01T11:39:53.533063400</t>
-  </si>
-  <si>
-    <t>ORGANISME AUTO2021-06-01T11:40:06.644488300</t>
-  </si>
-  <si>
-    <t>Type de thème 2021-06-01T11:52:43.031927700</t>
-  </si>
-  <si>
-    <t>Type de thème 2021-06-01T14:15:19.935951900</t>
-  </si>
-  <si>
     <t>2021-06-02T10:13:56.685749800</t>
   </si>
   <si>
@@ -1583,6 +1557,39 @@
   </si>
   <si>
     <t>ORGANISME AUTO2021-06-02T10:15:02.973214</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facteur AUTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facteur </t>
+  </si>
+  <si>
+    <t>Activité/Service</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Aspect AUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieu AUTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition AUTO </t>
+  </si>
+  <si>
+    <t>2021-06-04T10:32:42.698874100</t>
+  </si>
+  <si>
+    <t>2021-06-04T11:28:56.958915200</t>
+  </si>
+  <si>
+    <t>2021-06-04T11:28:59.222325700</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1843,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1946,6 +1953,9 @@
     <xf applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Lien hypertexte" xfId="1"/>
@@ -2287,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,25 +2333,25 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>490</v>
-      </c>
       <c r="D2" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S2" t="s">
+        <v>353</v>
+      </c>
+      <c r="T2" t="s">
         <v>354</v>
       </c>
-      <c r="T2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row ht="14.45" r="3" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="35" t="s">
         <v>21</v>
@@ -2353,7 +2363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row ht="14.45" r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="35" t="s">
         <v>24</v>
@@ -2464,19 +2474,19 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -2484,13 +2494,13 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2604,7 +2614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="2" s="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>17</v>
       </c>
@@ -2624,7 +2634,7 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>309</v>
@@ -2633,7 +2643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="3" s="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
       <c r="B3" s="56"/>
       <c r="C3" s="56" t="s">
@@ -2649,14 +2659,14 @@
         <v>2000</v>
       </c>
       <c r="G3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="56"/>
     </row>
-    <row customFormat="1" ht="14.45" r="4" s="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
       <c r="B4" s="56" t="s">
         <v>18</v>
@@ -2681,7 +2691,7 @@
       </c>
       <c r="I4" s="56"/>
     </row>
-    <row customFormat="1" ht="14.45" r="5" s="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>17</v>
       </c>
@@ -2786,7 +2796,7 @@
     <col min="15" max="15" customWidth="true" width="38.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15.75" r="1" s="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.75" r="1" s="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>15</v>
       </c>
@@ -2830,10 +2840,10 @@
         <v>26</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="14.45" r="2" s="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
@@ -2841,10 +2851,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>40</v>
@@ -2853,10 +2863,10 @@
         <v>309</v>
       </c>
       <c r="G2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>47</v>
@@ -2868,26 +2878,26 @@
         <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M2" s="30"/>
       <c r="N2" s="30" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="P2" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="P2" s="55" t="s">
-        <v>350</v>
-      </c>
       <c r="Q2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="R2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row ht="14.45" r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>196</v>
       </c>
@@ -2931,7 +2941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row ht="14.45" r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2972,7 +2982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row ht="14.45" r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
@@ -3016,7 +3026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>17</v>
       </c>
@@ -3054,7 +3064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
@@ -3095,7 +3105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>17</v>
       </c>
@@ -3133,7 +3143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>17</v>
       </c>
@@ -3240,7 +3250,7 @@
         <v>109</v>
       </c>
     </row>
-    <row ht="14.45" r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>119</v>
       </c>
@@ -3266,7 +3276,7 @@
         <v>319</v>
       </c>
     </row>
-    <row ht="14.45" r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>119</v>
       </c>
@@ -3330,7 +3340,7 @@
         <v>320</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="5" s="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>194</v>
       </c>
@@ -3415,7 +3425,7 @@
         <v>286</v>
       </c>
     </row>
-    <row ht="14.45" r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>278</v>
       </c>
@@ -3431,7 +3441,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="3" s="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>281</v>
       </c>
@@ -3446,7 +3456,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row ht="14.45" r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>278</v>
       </c>
@@ -3462,7 +3472,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row ht="14.45" r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>287</v>
       </c>
@@ -3521,7 +3531,7 @@
         <v>142</v>
       </c>
     </row>
-    <row ht="14.45" r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>131</v>
       </c>
@@ -3529,7 +3539,7 @@
         <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -3547,7 +3557,7 @@
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
     </row>
-    <row customFormat="1" ht="14.45" r="4" s="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>131</v>
       </c>
@@ -3562,7 +3572,7 @@
         <v>143</v>
       </c>
     </row>
-    <row ht="14.45" r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="D5" s="35"/>
@@ -4204,7 +4214,7 @@
         <v>141</v>
       </c>
     </row>
-    <row ht="14.45" r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>137</v>
       </c>
@@ -4212,13 +4222,13 @@
         <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F2" s="35">
         <v>50</v>
@@ -4305,10 +4315,10 @@
     </row>
     <row customFormat="1" r="2" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" t="s">
         <v>450</v>
-      </c>
-      <c r="B2" t="s">
-        <v>451</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>212</v>
@@ -4327,12 +4337,12 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
-    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" t="s">
         <v>378</v>
-      </c>
-      <c r="B3" t="s">
-        <v>379</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -4347,7 +4357,7 @@
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
-    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="24"/>
@@ -4371,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="5" s="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="24"/>
@@ -4745,37 +4755,37 @@
   <sheetData>
     <row customFormat="1" ht="15.75" r="1" s="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="C1" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="D1" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="E1" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="F1" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="G1" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="H1" s="66" t="s">
         <v>387</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>388</v>
       </c>
       <c r="I1" s="66" t="s">
         <v>129</v>
       </c>
       <c r="J1" s="66" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" s="66" t="s">
         <v>389</v>
-      </c>
-      <c r="K1" s="66" t="s">
-        <v>390</v>
       </c>
       <c r="L1" s="66" t="s">
         <v>82</v>
@@ -4784,209 +4794,209 @@
         <v>239</v>
       </c>
       <c r="N1" s="66" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O1" s="66" t="s">
         <v>240</v>
       </c>
       <c r="P1" s="66" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q1" s="66" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="S1" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="T1" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="U1" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="U1" s="66" t="s">
+      <c r="V1" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="V1" s="66" t="s">
+      <c r="W1" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="W1" s="66" t="s">
+      <c r="X1" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="X1" s="66" t="s">
+      <c r="Y1" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="Y1" s="66" t="s">
+      <c r="Z1" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="Z1" s="66" t="s">
+      <c r="AA1" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB1" s="66" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC1" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="AA1" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="AB1" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="AC1" s="66" t="s">
+      <c r="AD1" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="AD1" s="66" t="s">
+      <c r="AE1" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="AE1" s="66" t="s">
+      <c r="AF1" s="66" t="s">
         <v>404</v>
       </c>
-      <c r="AF1" s="66" t="s">
+      <c r="AG1" s="66" t="s">
         <v>405</v>
       </c>
-      <c r="AG1" s="66" t="s">
+      <c r="AH1" s="66" t="s">
         <v>406</v>
       </c>
-      <c r="AH1" s="66" t="s">
+      <c r="AI1" s="66" t="s">
         <v>407</v>
       </c>
-      <c r="AI1" s="66" t="s">
+      <c r="AJ1" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="AJ1" s="66" t="s">
+      <c r="AK1" s="66" t="s">
         <v>409</v>
       </c>
-      <c r="AK1" s="66" t="s">
+      <c r="AL1" s="66" t="s">
         <v>410</v>
       </c>
-      <c r="AL1" s="66" t="s">
+      <c r="AM1" s="66" t="s">
         <v>411</v>
       </c>
-      <c r="AM1" s="66" t="s">
+      <c r="AN1" s="66" t="s">
         <v>412</v>
       </c>
-      <c r="AN1" s="66" t="s">
+      <c r="AO1" s="66" t="s">
         <v>413</v>
       </c>
-      <c r="AO1" s="66" t="s">
+      <c r="AP1" s="66" t="s">
         <v>414</v>
       </c>
-      <c r="AP1" s="66" t="s">
+      <c r="AQ1" s="66" t="s">
         <v>415</v>
       </c>
-      <c r="AQ1" s="66" t="s">
+      <c r="AR1" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="AR1" s="66" t="s">
-        <v>417</v>
-      </c>
       <c r="AS1" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="AT1" s="65" t="s">
         <v>434</v>
-      </c>
-      <c r="AT1" s="65" t="s">
-        <v>435</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="2" s="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" t="s">
         <v>418</v>
       </c>
-      <c r="C2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>419</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>420</v>
       </c>
-      <c r="F2" t="s">
-        <v>421</v>
-      </c>
       <c r="G2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I2" t="s">
         <v>131</v>
       </c>
       <c r="J2" s="68" t="s">
+        <v>421</v>
+      </c>
+      <c r="K2" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="Q2" s="68" t="s">
         <v>423</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="R2" s="67" t="s">
         <v>424</v>
       </c>
-      <c r="R2" s="67" t="s">
+      <c r="S2" t="s">
         <v>425</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
+        <v>459</v>
+      </c>
+      <c r="V2" t="s">
+        <v>457</v>
+      </c>
+      <c r="X2" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z2" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA2" s="68" t="s">
         <v>426</v>
       </c>
-      <c r="U2" t="s">
-        <v>460</v>
-      </c>
-      <c r="V2" t="s">
-        <v>458</v>
-      </c>
-      <c r="X2" t="s">
-        <v>419</v>
-      </c>
-      <c r="Z2" s="68" t="s">
+      <c r="AB2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC2" s="68" t="s">
         <v>428</v>
       </c>
-      <c r="AA2" s="68" t="s">
-        <v>427</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>457</v>
-      </c>
-      <c r="AC2" s="68" t="s">
+      <c r="AD2" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="AD2" s="67" t="s">
+      <c r="AF2" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG2" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="AF2" s="68" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG2" s="68" t="s">
+      <c r="AI2" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="AI2" s="68" t="s">
-        <v>432</v>
-      </c>
       <c r="AJ2" s="68" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AK2" s="68" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL2" s="68" t="s">
         <v>212</v>
       </c>
       <c r="AN2" s="68" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO2" s="68" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AQ2" s="68" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AT2" s="68" t="s">
         <v>309</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="3" s="61" spans="1:46" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="Y3" s="61">
         <v>24</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="4" s="61" spans="1:46" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="U4" s="61">
         <v>20</v>
       </c>
@@ -5040,9 +5050,9 @@
         <v>173</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="2" s="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>171</v>
@@ -5057,7 +5067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
@@ -5068,7 +5078,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -5079,7 +5089,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row customFormat="1" ht="14.45" r="5" s="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5416,9 +5426,9 @@
         <v>170</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="2" s="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>171</v>
@@ -5436,7 +5446,7 @@
         <v>166</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
@@ -5448,7 +5458,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -5460,7 +5470,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row customFormat="1" ht="14.45" r="5" s="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5750,7 +5760,7 @@
         <v>241</v>
       </c>
     </row>
-    <row ht="14.45" r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
@@ -5795,10 +5805,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R2" s="30" t="s">
         <v>65</v>
@@ -5810,19 +5820,19 @@
         <v>303</v>
       </c>
       <c r="U2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V2" t="s">
+        <v>446</v>
+      </c>
+      <c r="W2" t="s">
         <v>447</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>448</v>
       </c>
-      <c r="X2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row ht="14.45" r="3" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>17</v>
       </c>
@@ -6122,7 +6132,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="115">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G1" sqref="E1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6167,7 +6177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="2" s="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>176</v>
       </c>
@@ -6190,7 +6200,7 @@
         <v>309</v>
       </c>
       <c r="H2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>21</v>
@@ -6225,7 +6235,7 @@
         <v>207</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -6495,6 +6505,79 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5857249F-7E86-4117-9FB2-C8B986B62128}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="18.75" r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6540,7 +6623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row ht="14.45" r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>176</v>
       </c>
@@ -6560,7 +6643,7 @@
         <v>309</v>
       </c>
       <c r="G2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>309</v>
@@ -6571,7 +6654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -6595,7 +6678,7 @@
         <v>292</v>
       </c>
     </row>
-    <row ht="14.45" r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
@@ -6606,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="14.45" r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
@@ -6617,7 +6700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="14.45" r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>262</v>
       </c>
@@ -6628,7 +6711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="14.45" r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>263</v>
       </c>
@@ -6773,7 +6856,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>47</v>
@@ -6793,12 +6876,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0" zoomScale="115">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView workbookViewId="0" zoomScale="115">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6823,63 +6906,63 @@
         <v>16</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>329</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>330</v>
       </c>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
       <c r="K1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>341</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>342</v>
       </c>
       <c r="W1" s="26"/>
       <c r="X1" s="26"/>
@@ -6893,7 +6976,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row ht="14.45" r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>18</v>
       </c>
@@ -6901,19 +6984,19 @@
         <v>17</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>343</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>344</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>189</v>
       </c>
       <c r="F2" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>345</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>346</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>24</v>
@@ -6921,28 +7004,28 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L2" t="s">
+        <v>465</v>
+      </c>
+      <c r="M2" t="s">
         <v>467</v>
       </c>
-      <c r="L2" t="s">
-        <v>466</v>
-      </c>
-      <c r="M2" t="s">
-        <v>468</v>
-      </c>
       <c r="N2" t="s">
+        <v>440</v>
+      </c>
+      <c r="O2" t="s">
+        <v>463</v>
+      </c>
+      <c r="P2" t="s">
         <v>441</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="R2" t="s">
         <v>464</v>
-      </c>
-      <c r="P2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="R2" t="s">
-        <v>465</v>
       </c>
       <c r="S2" s="29">
         <v>1</v>
@@ -6968,9 +7051,9 @@
       <c r="AF2" s="29"/>
       <c r="AG2" s="29"/>
     </row>
-    <row customFormat="1" ht="18" r="4" s="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="18.75" r="4" s="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row customFormat="1" r="5" s="29" spans="1:33" x14ac:dyDescent="0.25"/>
@@ -6979,7 +7062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:DZ2"/>
   <sheetViews>
@@ -6995,10 +7078,10 @@
   <sheetData>
     <row customFormat="1" r="1" s="58" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="59" t="s">
         <v>356</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>357</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
@@ -7128,12 +7211,12 @@
       <c r="DX1" s="60"/>
       <c r="DY1" s="60"/>
     </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" t="s">
         <v>445</v>
-      </c>
-      <c r="B2" t="s">
-        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -7142,12 +7225,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7159,16 +7242,16 @@
   <sheetData>
     <row customFormat="1" ht="18" r="1" s="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>370</v>
-      </c>
       <c r="C1" s="64" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row ht="14.45" r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -7176,7 +7259,7 @@
         <v>309</v>
       </c>
     </row>
-    <row ht="14.45" r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>258</v>
       </c>
@@ -7184,7 +7267,7 @@
         <v>309</v>
       </c>
     </row>
-    <row ht="14.45" r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -7192,15 +7275,15 @@
         <v>309</v>
       </c>
     </row>
-    <row ht="14.45" r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B5" s="61" t="s">
         <v>309</v>
       </c>
     </row>
-    <row ht="14.45" r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>264</v>
       </c>
@@ -7210,7 +7293,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>309</v>
@@ -7293,7 +7376,7 @@
         <v>262</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7383,7 +7466,7 @@
         <v>24022</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -7394,7 +7477,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -7405,7 +7488,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row customFormat="1" ht="14.45" r="5" s="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -7514,7 +7597,7 @@
       </c>
       <c r="N1" s="61"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -7525,10 +7608,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" t="s">
         <v>480</v>
-      </c>
-      <c r="E2" t="s">
-        <v>481</v>
       </c>
       <c r="J2" s="61" t="s">
         <v>9</v>
@@ -7540,13 +7623,13 @@
         <v>10</v>
       </c>
       <c r="M2" s="61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N2" s="61" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -7557,7 +7640,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E3" t="s">
         <v>312</v>
@@ -7682,22 +7765,22 @@
         <v>26</v>
       </c>
       <c r="U1" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="X1" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="Y1" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="14.45" r="2" s="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -7744,7 +7827,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q2" s="35" t="s">
         <v>309</v>
@@ -7759,7 +7842,7 @@
         <v>309</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V2" s="2">
         <v>1000</v>
@@ -7768,13 +7851,13 @@
         <v>150</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Y2" s="62">
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -8334,7 +8417,7 @@
         <v>55</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="2" s="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -8345,17 +8428,17 @@
         <v>309</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="3" s="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row customFormat="1" ht="14.45" r="4" s="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row customFormat="1" ht="14.45" r="5" s="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -8529,7 +8612,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>181</v>
@@ -8582,43 +8665,43 @@
     </row>
     <row customFormat="1" ht="18.75" r="2" s="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" t="s">
         <v>482</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J2" t="s">
         <v>483</v>
-      </c>
-      <c r="C2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" t="s">
-        <v>478</v>
-      </c>
-      <c r="I2" t="s">
-        <v>376</v>
-      </c>
-      <c r="J2" t="s">
-        <v>484</v>
       </c>
       <c r="K2" s="31">
         <v>0</v>
       </c>
       <c r="L2" t="s">
+        <v>486</v>
+      </c>
+      <c r="M2" t="s">
         <v>487</v>
-      </c>
-      <c r="M2" t="s">
-        <v>488</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>17</v>
@@ -8636,22 +8719,22 @@
         <v>247</v>
       </c>
       <c r="S2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U2" t="s">
         <v>191</v>
       </c>
       <c r="V2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W2" t="s">
         <v>191</v>
       </c>
       <c r="X2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row customFormat="1" ht="18.75" r="3" s="26" spans="1:24" x14ac:dyDescent="0.3">
@@ -8677,10 +8760,10 @@
         <v>309</v>
       </c>
       <c r="H3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>246</v>
@@ -8689,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>256</v>
@@ -8710,7 +8793,7 @@
         <v>247</v>
       </c>
       <c r="S3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T3" s="29" t="s">
         <v>253</v>
@@ -8728,7 +8811,7 @@
         <v>253</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="4" s="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
@@ -9291,7 +9374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="2" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>257</v>
       </c>
@@ -9333,7 +9416,7 @@
       </c>
       <c r="N2" s="30"/>
     </row>
-    <row customFormat="1" ht="14.45" r="3" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>257</v>
       </c>
@@ -9365,7 +9448,7 @@
       </c>
       <c r="N3" s="30"/>
     </row>
-    <row customFormat="1" ht="14.45" r="4" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>257</v>
       </c>
@@ -9401,7 +9484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="5" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>257</v>
       </c>
@@ -9794,22 +9877,22 @@
         <v>304</v>
       </c>
       <c r="Q1" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>353</v>
-      </c>
       <c r="S1" s="57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="14.45" r="2" s="30" spans="1:21" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
@@ -9838,7 +9921,7 @@
         <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K2" s="30">
         <v>126</v>
@@ -9862,10 +9945,10 @@
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U2"/>
     </row>
@@ -9911,7 +9994,7 @@
         <v>309</v>
       </c>
     </row>
-    <row customFormat="1" ht="14.45" r="4" s="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>

--- a/resources/testData/TestData.xlsx
+++ b/resources/testData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{330F5E6A-BDBB-4409-BF09-F10F1F0D34EE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{ADCC27F9-70FF-4385-95CD-6602DEDF8265}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="20" firstSheet="15" tabRatio="729" windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView tabRatio="729" windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Input" r:id="rId1" sheetId="1"/>
@@ -28,19 +28,18 @@
     <sheet name="EnqueteClient" r:id="rId18" sheetId="16"/>
     <sheet name="EnquetePersonnel" r:id="rId19" sheetId="17"/>
     <sheet name="IncidentEnv" r:id="rId20" sheetId="18"/>
-    <sheet name="EvaluationAspect" r:id="rId21" sheetId="28"/>
-    <sheet name="IncidentSec" r:id="rId22" sheetId="19"/>
-    <sheet name="ModuleVendu" r:id="rId23" sheetId="20"/>
-    <sheet name="RisqueOpp" r:id="rId24" sheetId="23"/>
-    <sheet name="JourConge" r:id="rId25" sheetId="24"/>
-    <sheet name="SommeAgenda" r:id="rId26" sheetId="25"/>
+    <sheet name="IncidentSec" r:id="rId21" sheetId="19"/>
+    <sheet name="ModuleVendu" r:id="rId22" sheetId="20"/>
+    <sheet name="RisqueOpp" r:id="rId23" sheetId="23"/>
+    <sheet name="JourConge" r:id="rId24" sheetId="24"/>
+    <sheet name="SommeAgenda" r:id="rId25" sheetId="25"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="521">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1037,6 +1036,9 @@
     <t>AUDIT</t>
   </si>
   <si>
+    <t>AUTO</t>
+  </si>
+  <si>
     <t>09/17/2020</t>
   </si>
   <si>
@@ -1541,6 +1543,30 @@
     <t>sana</t>
   </si>
   <si>
+    <t>Type de thème 2021-06-01T11:39:00.018512100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> formation auto2021-06-01T11:39:14.345584700</t>
+  </si>
+  <si>
+    <t>SOCIETE AUTO2021-06-01T11:39:25.383552700</t>
+  </si>
+  <si>
+    <t>Type de critére2021-06-01T11:39:39.468828300</t>
+  </si>
+  <si>
+    <t>Théme AUTO2021-06-01T11:39:53.533063400</t>
+  </si>
+  <si>
+    <t>ORGANISME AUTO2021-06-01T11:40:06.644488300</t>
+  </si>
+  <si>
+    <t>Type de thème 2021-06-01T11:52:43.031927700</t>
+  </si>
+  <si>
+    <t>Type de thème 2021-06-01T14:15:19.935951900</t>
+  </si>
+  <si>
     <t>2021-06-02T10:13:56.685749800</t>
   </si>
   <si>
@@ -1559,37 +1585,52 @@
     <t>ORGANISME AUTO2021-06-02T10:15:02.973214</t>
   </si>
   <si>
-    <t>Aspect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facteur AUTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facteur </t>
-  </si>
-  <si>
-    <t>Activité/Service</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Aspect AUTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieu AUTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition AUTO </t>
-  </si>
-  <si>
-    <t>2021-06-04T10:32:42.698874100</t>
-  </si>
-  <si>
-    <t>2021-06-04T11:28:56.958915200</t>
-  </si>
-  <si>
-    <t>2021-06-04T11:28:59.222325700</t>
+    <t>Source Action Auto2021-06-03T15:57:02.582</t>
+  </si>
+  <si>
+    <t>Type Action Auto 2021-06-03T15:57:11.536</t>
+  </si>
+  <si>
+    <t>Source Action Auto2021-06-04T08:39:51.545</t>
+  </si>
+  <si>
+    <t>Type Action Auto 2021-06-04T08:40:00.185</t>
+  </si>
+  <si>
+    <t>désignation  action  simplifie  vz7w4dNWNeS 7e4QOsl0RPu Fb90QOB8LL3 kI47yG878eK wsytWdKVXct wE1D83UdQVF 3xzGBkfu375 Z28A6G7dRHP PuX26D07V8O Y4Gokujj0Eq HVKX5D3UUmH</t>
+  </si>
+  <si>
+    <t>Znf7FSmVew</t>
+  </si>
+  <si>
+    <t>désignation  action  simplifie  siOusjpmQrG 66MJxTpJE09 gmGpWfxEStx zhg6wbjnYRh h92BYRC4G0R evMduSaX6eB 4xUlCWQ824E YhobK8rLWXi 5P47P8O8Yk9 ry23sZ6lspE YDObJCwyzi7</t>
+  </si>
+  <si>
+    <t>GdO6c5TAQl</t>
+  </si>
+  <si>
+    <t>Source Action Auto2021-06-04T11:20:49.170</t>
+  </si>
+  <si>
+    <t>Type Action Auto 2021-06-04T11:20:58.106</t>
+  </si>
+  <si>
+    <t>désignation  action  simplifie  vMrJHSotBVI 683Wk0lIMu8 7NUQOpq0tMq zEuOoE5Kkkv 9ww3n5ARfkq hb5XsVTAfv0 NKugQfNEC64 hnBIDnFDLda vViozil9bGw 2QeETyHDI4W erPhRI8x6M0</t>
+  </si>
+  <si>
+    <t>vcW8z9OYcv</t>
+  </si>
+  <si>
+    <t>Source Action Auto2021-06-04T11:47:03.202</t>
+  </si>
+  <si>
+    <t>Type Action Auto 2021-06-04T11:47:12.073</t>
+  </si>
+  <si>
+    <t>désignation  action  simplifie  kxFpa6TusbH hVNMQ9Tz5sp RHhTnZ6fi93 bedOyXkPapt nyMNSiSZiQ9 NGmsYK7rlVp Z9uMwtYgUta jg8q7joQBWI U4tnYNS5ice 0q719qO9eXt mEoB3vwXBbP</t>
+  </si>
+  <si>
+    <t>LP2dmUn1HL</t>
   </si>
 </sst>
 </file>
@@ -1843,7 +1884,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1953,9 +1994,6 @@
     <xf applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Lien hypertexte" xfId="1"/>
@@ -2297,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,25 +2371,25 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>309</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="S2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row ht="14.45" r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" s="35" t="s">
         <v>21</v>
@@ -2363,7 +2401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="35" t="s">
         <v>24</v>
@@ -2474,19 +2512,19 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="35" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="35" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -2494,13 +2532,13 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="35" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2614,7 +2652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="2" s="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>17</v>
       </c>
@@ -2634,7 +2672,7 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>309</v>
@@ -2643,7 +2681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="3" s="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="56"/>
       <c r="B3" s="56"/>
       <c r="C3" s="56" t="s">
@@ -2659,14 +2697,14 @@
         <v>2000</v>
       </c>
       <c r="G3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I3" s="56"/>
     </row>
-    <row customFormat="1" r="4" s="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="4" s="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="56"/>
       <c r="B4" s="56" t="s">
         <v>18</v>
@@ -2691,7 +2729,7 @@
       </c>
       <c r="I4" s="56"/>
     </row>
-    <row customFormat="1" r="5" s="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="5" s="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>17</v>
       </c>
@@ -2796,7 +2834,7 @@
     <col min="15" max="15" customWidth="true" width="38.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15.75" r="1" s="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.75" r="1" s="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>15</v>
       </c>
@@ -2840,10 +2878,10 @@
         <v>26</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="14.45" r="2" s="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
@@ -2851,10 +2889,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>40</v>
@@ -2863,10 +2901,10 @@
         <v>309</v>
       </c>
       <c r="G2" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="H2" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>47</v>
@@ -2878,26 +2916,26 @@
         <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M2" s="30"/>
       <c r="N2" s="30" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="55" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P2" s="55" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q2" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="R2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row ht="14.45" r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>196</v>
       </c>
@@ -2941,7 +2979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2982,7 +3020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
@@ -3026,7 +3064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>17</v>
       </c>
@@ -3064,7 +3102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
@@ -3105,7 +3143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>17</v>
       </c>
@@ -3143,7 +3181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>17</v>
       </c>
@@ -3250,7 +3288,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>119</v>
       </c>
@@ -3276,7 +3314,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>119</v>
       </c>
@@ -3340,7 +3378,7 @@
         <v>320</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="5" s="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>194</v>
       </c>
@@ -3425,7 +3463,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>278</v>
       </c>
@@ -3441,7 +3479,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="3" s="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>281</v>
       </c>
@@ -3456,7 +3494,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>278</v>
       </c>
@@ -3472,7 +3510,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>287</v>
       </c>
@@ -3531,7 +3569,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>131</v>
       </c>
@@ -3539,7 +3577,7 @@
         <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -3557,7 +3595,7 @@
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
     </row>
-    <row customFormat="1" r="4" s="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="4" s="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>131</v>
       </c>
@@ -3572,7 +3610,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="D5" s="35"/>
@@ -4214,7 +4252,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>137</v>
       </c>
@@ -4222,13 +4260,13 @@
         <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F2" s="35">
         <v>50</v>
@@ -4315,10 +4353,10 @@
     </row>
     <row customFormat="1" r="2" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>212</v>
@@ -4337,12 +4375,12 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
-    <row customFormat="1" r="3" s="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -4357,7 +4395,7 @@
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
-    <row customFormat="1" r="4" s="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="24"/>
@@ -4381,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="5" s="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="24"/>
@@ -4755,37 +4793,37 @@
   <sheetData>
     <row customFormat="1" ht="15.75" r="1" s="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I1" s="66" t="s">
         <v>129</v>
       </c>
       <c r="J1" s="66" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L1" s="66" t="s">
         <v>82</v>
@@ -4794,209 +4832,209 @@
         <v>239</v>
       </c>
       <c r="N1" s="66" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O1" s="66" t="s">
         <v>240</v>
       </c>
       <c r="P1" s="66" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q1" s="66" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="66" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S1" s="66" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="T1" s="66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="U1" s="66" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="V1" s="66" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="W1" s="66" t="s">
+        <v>398</v>
+      </c>
+      <c r="X1" s="66" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y1" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z1" s="66" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA1" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="X1" s="66" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y1" s="66" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z1" s="66" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA1" s="66" t="s">
-        <v>396</v>
-      </c>
       <c r="AB1" s="66" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC1" s="66" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD1" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE1" s="66" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF1" s="66" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG1" s="66" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH1" s="66" t="s">
+        <v>407</v>
+      </c>
+      <c r="AI1" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="AJ1" s="66" t="s">
+        <v>409</v>
+      </c>
+      <c r="AK1" s="66" t="s">
+        <v>410</v>
+      </c>
+      <c r="AL1" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM1" s="66" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN1" s="66" t="s">
+        <v>413</v>
+      </c>
+      <c r="AO1" s="66" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP1" s="66" t="s">
+        <v>415</v>
+      </c>
+      <c r="AQ1" s="66" t="s">
+        <v>416</v>
+      </c>
+      <c r="AR1" s="66" t="s">
+        <v>417</v>
+      </c>
+      <c r="AS1" s="65" t="s">
+        <v>434</v>
+      </c>
+      <c r="AT1" s="65" t="s">
         <v>435</v>
-      </c>
-      <c r="AC1" s="66" t="s">
-        <v>401</v>
-      </c>
-      <c r="AD1" s="66" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE1" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF1" s="66" t="s">
-        <v>404</v>
-      </c>
-      <c r="AG1" s="66" t="s">
-        <v>405</v>
-      </c>
-      <c r="AH1" s="66" t="s">
-        <v>406</v>
-      </c>
-      <c r="AI1" s="66" t="s">
-        <v>407</v>
-      </c>
-      <c r="AJ1" s="66" t="s">
-        <v>408</v>
-      </c>
-      <c r="AK1" s="66" t="s">
-        <v>409</v>
-      </c>
-      <c r="AL1" s="66" t="s">
-        <v>410</v>
-      </c>
-      <c r="AM1" s="66" t="s">
-        <v>411</v>
-      </c>
-      <c r="AN1" s="66" t="s">
-        <v>412</v>
-      </c>
-      <c r="AO1" s="66" t="s">
-        <v>413</v>
-      </c>
-      <c r="AP1" s="66" t="s">
-        <v>414</v>
-      </c>
-      <c r="AQ1" s="66" t="s">
-        <v>415</v>
-      </c>
-      <c r="AR1" s="66" t="s">
-        <v>416</v>
-      </c>
-      <c r="AS1" s="65" t="s">
-        <v>433</v>
-      </c>
-      <c r="AT1" s="65" t="s">
-        <v>434</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="2" s="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I2" t="s">
         <v>131</v>
       </c>
       <c r="J2" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q2" s="68" t="s">
+        <v>424</v>
+      </c>
+      <c r="R2" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="S2" t="s">
+        <v>426</v>
+      </c>
+      <c r="U2" t="s">
+        <v>460</v>
+      </c>
+      <c r="V2" t="s">
+        <v>458</v>
+      </c>
+      <c r="X2" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z2" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA2" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC2" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD2" s="67" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF2" s="68" t="s">
         <v>421</v>
       </c>
-      <c r="K2" s="68" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q2" s="68" t="s">
-        <v>423</v>
-      </c>
-      <c r="R2" s="67" t="s">
-        <v>424</v>
-      </c>
-      <c r="S2" t="s">
-        <v>425</v>
-      </c>
-      <c r="U2" t="s">
-        <v>459</v>
-      </c>
-      <c r="V2" t="s">
-        <v>457</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AG2" s="68" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI2" s="68" t="s">
+        <v>432</v>
+      </c>
+      <c r="AJ2" s="68" t="s">
         <v>418</v>
       </c>
-      <c r="Z2" s="68" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA2" s="68" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>456</v>
-      </c>
-      <c r="AC2" s="68" t="s">
-        <v>428</v>
-      </c>
-      <c r="AD2" s="67" t="s">
-        <v>429</v>
-      </c>
-      <c r="AF2" s="68" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG2" s="68" t="s">
-        <v>430</v>
-      </c>
-      <c r="AI2" s="68" t="s">
-        <v>431</v>
-      </c>
-      <c r="AJ2" s="68" t="s">
-        <v>417</v>
-      </c>
       <c r="AK2" s="68" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL2" s="68" t="s">
         <v>212</v>
       </c>
       <c r="AN2" s="68" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO2" s="68" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AQ2" s="68" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AT2" s="68" t="s">
         <v>309</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="3" s="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="Y3" s="61">
         <v>24</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="4" s="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="U4" s="61">
         <v>20</v>
       </c>
@@ -5050,9 +5088,9 @@
         <v>173</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="2" s="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>171</v>
@@ -5067,7 +5105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
@@ -5078,7 +5116,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row customFormat="1" r="4" s="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -5089,7 +5127,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row customFormat="1" r="5" s="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="5" s="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5426,9 +5464,9 @@
         <v>170</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="2" s="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>171</v>
@@ -5446,7 +5484,7 @@
         <v>166</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
@@ -5458,7 +5496,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row customFormat="1" r="4" s="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -5470,7 +5508,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row customFormat="1" r="5" s="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="5" s="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5760,7 +5798,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
@@ -5805,10 +5843,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q2" t="s">
         <v>472</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>471</v>
       </c>
       <c r="R2" s="30" t="s">
         <v>65</v>
@@ -5820,19 +5858,19 @@
         <v>303</v>
       </c>
       <c r="U2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="W2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row ht="14.45" r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>17</v>
       </c>
@@ -6132,7 +6170,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="115">
-      <selection activeCell="G1" sqref="E1:G5"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6177,7 +6215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="2" s="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>176</v>
       </c>
@@ -6200,7 +6238,7 @@
         <v>309</v>
       </c>
       <c r="H2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>21</v>
@@ -6235,7 +6273,7 @@
         <v>207</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -6505,79 +6543,6 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5857249F-7E86-4117-9FB2-C8B986B62128}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="18.75" r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>501</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>497</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>502</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6623,7 +6588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>176</v>
       </c>
@@ -6643,7 +6608,7 @@
         <v>309</v>
       </c>
       <c r="G2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>309</v>
@@ -6654,7 +6619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -6678,7 +6643,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
@@ -6689,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
@@ -6700,7 +6665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>262</v>
       </c>
@@ -6711,7 +6676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>263</v>
       </c>
@@ -6856,7 +6821,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>47</v>
@@ -6876,12 +6841,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115">
-      <selection sqref="A1:D2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0" zoomScale="115">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6906,63 +6871,63 @@
         <v>16</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
       <c r="K1" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T1" s="26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U1" s="26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W1" s="26"/>
       <c r="X1" s="26"/>
@@ -6976,7 +6941,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>18</v>
       </c>
@@ -6984,19 +6949,19 @@
         <v>17</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>189</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>24</v>
@@ -7004,28 +6969,28 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L2" t="s">
         <v>466</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>468</v>
+      </c>
+      <c r="N2" t="s">
+        <v>441</v>
+      </c>
+      <c r="O2" t="s">
+        <v>464</v>
+      </c>
+      <c r="P2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="R2" t="s">
         <v>465</v>
-      </c>
-      <c r="M2" t="s">
-        <v>467</v>
-      </c>
-      <c r="N2" t="s">
-        <v>440</v>
-      </c>
-      <c r="O2" t="s">
-        <v>463</v>
-      </c>
-      <c r="P2" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="R2" t="s">
-        <v>464</v>
       </c>
       <c r="S2" s="29">
         <v>1</v>
@@ -7051,9 +7016,9 @@
       <c r="AF2" s="29"/>
       <c r="AG2" s="29"/>
     </row>
-    <row customFormat="1" ht="18.75" r="4" s="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="18" r="4" s="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row customFormat="1" r="5" s="29" spans="1:33" x14ac:dyDescent="0.25"/>
@@ -7062,7 +7027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:DZ2"/>
   <sheetViews>
@@ -7078,10 +7043,10 @@
   <sheetData>
     <row customFormat="1" r="1" s="58" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
@@ -7211,12 +7176,12 @@
       <c r="DX1" s="60"/>
       <c r="DY1" s="60"/>
     </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -7225,12 +7190,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7242,16 +7207,16 @@
   <sheetData>
     <row customFormat="1" ht="18" r="1" s="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row ht="14.45" r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -7259,7 +7224,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>258</v>
       </c>
@@ -7267,7 +7232,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -7275,15 +7240,15 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B5" s="61" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row ht="14.45" r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>264</v>
       </c>
@@ -7293,7 +7258,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>309</v>
@@ -7376,7 +7341,7 @@
         <v>262</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7466,7 +7431,7 @@
         <v>24022</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -7477,7 +7442,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row customFormat="1" r="4" s="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="4" s="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -7488,7 +7453,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row customFormat="1" r="5" s="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="5" s="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -7597,7 +7562,7 @@
       </c>
       <c r="N1" s="61"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -7608,10 +7573,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J2" s="61" t="s">
         <v>9</v>
@@ -7623,13 +7588,13 @@
         <v>10</v>
       </c>
       <c r="M2" s="61" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N2" s="61" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -7640,7 +7605,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E3" t="s">
         <v>312</v>
@@ -7765,22 +7730,22 @@
         <v>26</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="14.45" r="2" s="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -7827,7 +7792,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q2" s="35" t="s">
         <v>309</v>
@@ -7842,7 +7807,7 @@
         <v>309</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="V2" s="2">
         <v>1000</v>
@@ -7851,13 +7816,13 @@
         <v>150</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Y2" s="62">
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="3" s="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -8417,7 +8382,7 @@
         <v>55</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="2" s="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -8428,17 +8393,17 @@
         <v>309</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="3" s="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="4" s="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="5" s="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -8612,7 +8577,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>181</v>
@@ -8665,43 +8630,43 @@
     </row>
     <row customFormat="1" ht="18.75" r="2" s="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="C2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J2" t="s">
         <v>484</v>
-      </c>
-      <c r="D2" t="s">
-        <v>485</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" t="s">
-        <v>477</v>
-      </c>
-      <c r="I2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J2" t="s">
-        <v>483</v>
       </c>
       <c r="K2" s="31">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="M2" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>17</v>
@@ -8719,22 +8684,22 @@
         <v>247</v>
       </c>
       <c r="S2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="U2" t="s">
         <v>191</v>
       </c>
       <c r="V2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="W2" t="s">
         <v>191</v>
       </c>
       <c r="X2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row customFormat="1" ht="18.75" r="3" s="26" spans="1:24" x14ac:dyDescent="0.3">
@@ -8760,10 +8725,10 @@
         <v>309</v>
       </c>
       <c r="H3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>246</v>
@@ -8772,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>256</v>
@@ -8793,7 +8758,7 @@
         <v>247</v>
       </c>
       <c r="S3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T3" s="29" t="s">
         <v>253</v>
@@ -8811,7 +8776,7 @@
         <v>253</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="4" s="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
@@ -9374,7 +9339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="2" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>257</v>
       </c>
@@ -9416,7 +9381,7 @@
       </c>
       <c r="N2" s="30"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="3" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>257</v>
       </c>
@@ -9448,7 +9413,7 @@
       </c>
       <c r="N3" s="30"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="4" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>257</v>
       </c>
@@ -9484,7 +9449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="5" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>257</v>
       </c>
@@ -9877,22 +9842,22 @@
         <v>304</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S1" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="30" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" ht="14.45" r="2" s="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
@@ -9921,7 +9886,7 @@
         <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K2" s="30">
         <v>126</v>
@@ -9945,10 +9910,10 @@
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U2"/>
     </row>
@@ -9994,7 +9959,7 @@
         <v>309</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="14.45" r="4" s="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>

--- a/resources/testData/TestData.xlsx
+++ b/resources/testData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{330F5E6A-BDBB-4409-BF09-F10F1F0D34EE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F39348D5-297D-4F3A-A39B-BBF33D0D9108}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="20" firstSheet="15" tabRatio="729" windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="20" firstSheet="13" tabRatio="729" windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Input" r:id="rId1" sheetId="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="505">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1535,12 +1535,6 @@
     <t>rCwkHg69kz</t>
   </si>
   <si>
-    <t>http://10.66.245.30/Qualipro_saphir</t>
-  </si>
-  <si>
-    <t>sana</t>
-  </si>
-  <si>
     <t>2021-06-02T10:13:56.685749800</t>
   </si>
   <si>
@@ -1559,37 +1553,37 @@
     <t>ORGANISME AUTO2021-06-02T10:15:02.973214</t>
   </si>
   <si>
+    <t xml:space="preserve">Facteur AUTO </t>
+  </si>
+  <si>
+    <t>Activité/Service</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition AUTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://10.66.245.30/w232</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facteur </t>
+  </si>
+  <si>
+    <t>Aspect AUTO</t>
+  </si>
+  <si>
     <t>Aspect</t>
   </si>
   <si>
-    <t xml:space="preserve">Facteur AUTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facteur </t>
-  </si>
-  <si>
-    <t>Activité/Service</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Aspect AUTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieu AUTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition AUTO </t>
-  </si>
-  <si>
-    <t>2021-06-04T10:32:42.698874100</t>
-  </si>
-  <si>
-    <t>2021-06-04T11:28:56.958915200</t>
-  </si>
-  <si>
-    <t>2021-06-04T11:28:59.222325700</t>
+    <t>Num  fiche</t>
+  </si>
+  <si>
+    <t>325</t>
   </si>
 </sst>
 </file>
@@ -1843,7 +1837,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1953,7 +1947,8 @@
     <xf applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="6" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2298,7 +2293,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,16 +2328,16 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>309</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="S2" t="s">
         <v>353</v>
@@ -2494,13 +2489,13 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="35" t="s">
-        <v>489</v>
+        <v>316</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>489</v>
+        <v>316</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>489</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2559,7 +2554,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink display="http://10.66.245.30/Qualipro_saphir" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2851,10 +2846,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>40</v>
@@ -2863,10 +2858,10 @@
         <v>309</v>
       </c>
       <c r="G2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>47</v>
@@ -2891,10 +2886,10 @@
         <v>349</v>
       </c>
       <c r="Q2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="R2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -6506,9 +6501,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5857249F-7E86-4117-9FB2-C8B986B62128}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6517,63 +6514,74 @@
     <col min="3" max="3" customWidth="true" width="29.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="22.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="18.75" r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C1" s="26" t="s">
+    <row customFormat="1" ht="18.75" r="1" s="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>501</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>502</v>
+        <v>175</v>
       </c>
       <c r="D2" s="56"/>
       <c r="E2" s="56" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="F2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resources/testData/TestData.xlsx
+++ b/resources/testData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{F39348D5-297D-4F3A-A39B-BBF33D0D9108}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E887D8CB-2E28-424F-9E0D-584E685E97B2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="20" firstSheet="13" tabRatio="729" windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="3" tabRatio="729" windowHeight="13140" windowWidth="21840" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Input" r:id="rId1" sheetId="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="516">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1400,24 +1400,12 @@
     <t>10274</t>
   </si>
   <si>
-    <t>27242</t>
-  </si>
-  <si>
     <t>Samedi</t>
   </si>
   <si>
     <t>Dimanche</t>
   </si>
   <si>
-    <t>27251</t>
-  </si>
-  <si>
-    <t>27252</t>
-  </si>
-  <si>
-    <t>27253</t>
-  </si>
-  <si>
     <t>Test_Auto_Stai_Client1_mVhrVy9ho5w8dWA</t>
   </si>
   <si>
@@ -1484,12 +1472,6 @@
     <t>objectif formation  fHiRCaTktOxh zLWzQ31WuPsQ XEo6QammiDx9 DKEXW6R5i9Nb RjbnbZlWLOX9 To41T4Fp1yrC bWGwC4CmkWFl LFJTntXQp8kI 6VvmhkCzpbFx d7pQ2P37T8Ru</t>
   </si>
   <si>
-    <t>05/04/2021</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>objectif formation  yj4bSAjEVChd wONK21bLGRPW lMgtzWJPDo9I jkmcNl47jZf3 Zx4AO2l9MJXB ceKky1qCiLKB a1Ok8JptJt5r WJcv9FluedZO juc6yN4sM8r6 doP5aAe2Y2KD</t>
   </si>
   <si>
@@ -1565,9 +1547,6 @@
     <t xml:space="preserve">Condition AUTO </t>
   </si>
   <si>
-    <t xml:space="preserve"> http://10.66.245.30/w232</t>
-  </si>
-  <si>
     <t>AUTO</t>
   </si>
   <si>
@@ -1584,6 +1563,60 @@
   </si>
   <si>
     <t>325</t>
+  </si>
+  <si>
+    <t>Nombre audit Planfier</t>
+  </si>
+  <si>
+    <t>audit a realise</t>
+  </si>
+  <si>
+    <t>Audit non  encore  realise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num Act </t>
+  </si>
+  <si>
+    <t>num Act</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat d'audit </t>
+  </si>
+  <si>
+    <t>date debut prévue</t>
+  </si>
+  <si>
+    <t>date fin prévue</t>
+  </si>
+  <si>
+    <t>REALISE</t>
+  </si>
+  <si>
+    <t>15/06/2021</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>http://srv-vld/w233/</t>
+  </si>
+  <si>
+    <t>mooS_ApaAuto-0001</t>
+  </si>
+  <si>
+    <t>mooS_ApaAuto-0002</t>
+  </si>
+  <si>
+    <t>mooS_ApaAuto-0003</t>
+  </si>
+  <si>
+    <t>mooS_ApaAuto-0004</t>
   </si>
 </sst>
 </file>
@@ -2293,7 +2326,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,16 +2361,16 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>309</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="S2" t="s">
         <v>353</v>
@@ -2469,19 +2502,19 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="35" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="35" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -2554,7 +2587,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://10.66.245.30/Qualipro_saphir" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2629,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>309</v>
@@ -2654,10 +2687,10 @@
         <v>2000</v>
       </c>
       <c r="G3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="I3" s="56"/>
     </row>
@@ -2846,10 +2879,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>40</v>
@@ -2858,10 +2891,10 @@
         <v>309</v>
       </c>
       <c r="G2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>47</v>
@@ -2873,7 +2906,7 @@
         <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M2" s="30"/>
       <c r="N2" s="30" t="s">
@@ -2886,10 +2919,10 @@
         <v>349</v>
       </c>
       <c r="Q2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="R2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -4310,10 +4343,10 @@
     </row>
     <row customFormat="1" r="2" s="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>212</v>
@@ -4890,13 +4923,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="2" s="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>417</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D2" t="s">
         <v>418</v>
@@ -4932,10 +4965,10 @@
         <v>425</v>
       </c>
       <c r="U2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="V2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="X2" t="s">
         <v>418</v>
@@ -4947,7 +4980,7 @@
         <v>426</v>
       </c>
       <c r="AB2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AC2" s="68" t="s">
         <v>428</v>
@@ -5665,10 +5698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="U1" workbookViewId="0" zoomScale="115">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5693,9 +5726,15 @@
     <col min="18" max="18" customWidth="true" style="2" width="34.7109375" collapsed="true"/>
     <col min="19" max="19" customWidth="true" style="2" width="18.85546875" collapsed="true"/>
     <col min="20" max="20" style="2" width="11.42578125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="30" r="1" s="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="30" r="1" s="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
@@ -5754,8 +5793,38 @@
       <c r="T1" s="26" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U1" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y1" s="69" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z1" s="69" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA1" s="69" t="s">
+        <v>500</v>
+      </c>
+      <c r="AB1" s="69" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC1" s="69" t="s">
+        <v>506</v>
+      </c>
+      <c r="AD1" s="69" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
@@ -5781,7 +5850,7 @@
         <v>47</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>309</v>
+        <v>21</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>309</v>
@@ -5800,10 +5869,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="Q2" t="s">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="R2" s="30" t="s">
         <v>65</v>
@@ -5815,19 +5884,34 @@
         <v>303</v>
       </c>
       <c r="U2" t="s">
-        <v>443</v>
+        <v>180</v>
       </c>
       <c r="V2" t="s">
-        <v>446</v>
+        <v>180</v>
       </c>
       <c r="W2" t="s">
-        <v>447</v>
+        <v>180</v>
       </c>
       <c r="X2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>509</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>17</v>
       </c>
@@ -5876,8 +5960,20 @@
       <c r="R3" s="30"/>
       <c r="S3" s="30"/>
       <c r="T3" s="30"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>27</v>
+      </c>
+      <c r="AC3">
+        <v>28</v>
+      </c>
+      <c r="AD3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>200</v>
       </c>
@@ -5931,7 +6027,7 @@
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>200</v>
       </c>
@@ -5983,7 +6079,7 @@
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -6007,7 +6103,7 @@
       <c r="S6" s="30"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -6031,7 +6127,7 @@
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -6055,7 +6151,7 @@
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -6079,7 +6175,7 @@
       <c r="S9" s="30"/>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -6195,7 +6291,7 @@
         <v>309</v>
       </c>
       <c r="H2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>21</v>
@@ -6503,8 +6599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5857249F-7E86-4117-9FB2-C8B986B62128}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6514,45 +6610,48 @@
     <col min="3" max="3" customWidth="true" width="29.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="22.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" ht="18.75" r="1" s="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>174</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E1" s="70" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1" s="69" t="s">
         <v>496</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C2" s="56" t="s">
         <v>175</v>
       </c>
       <c r="D2" s="56"/>
       <c r="E2" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="F2" t="s">
         <v>497</v>
-      </c>
-      <c r="F2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7012,19 +7111,19 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="N2" t="s">
         <v>440</v>
       </c>
       <c r="O2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P2" t="s">
         <v>441</v>
@@ -7033,7 +7132,7 @@
         <v>346</v>
       </c>
       <c r="R2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="S2" s="29">
         <v>1</v>
@@ -7221,10 +7320,10 @@
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" t="s">
         <v>444</v>
-      </c>
-      <c r="B2" t="s">
-        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -7384,7 +7483,7 @@
         <v>262</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7560,8 +7659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0" zoomScale="115">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0" zoomScale="115">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7591,6 +7690,9 @@
       <c r="D1" t="s">
         <v>80</v>
       </c>
+      <c r="E1" t="s">
+        <v>515</v>
+      </c>
       <c r="J1" s="61" t="s">
         <v>6</v>
       </c>
@@ -7616,10 +7718,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="J2" s="61" t="s">
         <v>9</v>
@@ -7835,7 +7937,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q2" s="35" t="s">
         <v>309</v>
@@ -7850,7 +7952,7 @@
         <v>309</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="V2" s="2">
         <v>1000</v>
@@ -8673,16 +8775,16 @@
     </row>
     <row customFormat="1" ht="18.75" r="2" s="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>309</v>
@@ -8694,22 +8796,22 @@
         <v>309</v>
       </c>
       <c r="H2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="I2" t="s">
         <v>375</v>
       </c>
       <c r="J2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K2" s="31">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>17</v>
@@ -8727,22 +8829,22 @@
         <v>247</v>
       </c>
       <c r="S2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="T2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="U2" t="s">
         <v>191</v>
       </c>
       <c r="V2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="W2" t="s">
         <v>191</v>
       </c>
       <c r="X2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row customFormat="1" ht="18.75" r="3" s="26" spans="1:24" x14ac:dyDescent="0.3">
@@ -8768,7 +8870,7 @@
         <v>309</v>
       </c>
       <c r="H3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I3" t="s">
         <v>322</v>
@@ -8780,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>256</v>
@@ -8801,7 +8903,7 @@
         <v>247</v>
       </c>
       <c r="S3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="T3" s="29" t="s">
         <v>253</v>
@@ -9929,7 +10031,7 @@
         <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K2" s="30">
         <v>126</v>
